--- a/data/trans_orig/Q5410-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5410-Estudios-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5074</v>
+        <v>4213</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002246594520435747</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01359685384009183</v>
+        <v>0.01128832378875836</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -765,19 +765,19 @@
         <v>5613</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2080</v>
+        <v>2034</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12667</v>
+        <v>12434</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.009549947818845082</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.00353908916878365</v>
+        <v>0.003461420812354285</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02155177630984186</v>
+        <v>0.02115505582475633</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -786,19 +786,19 @@
         <v>6451</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2860</v>
+        <v>2100</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>14459</v>
+        <v>13693</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.006713625678924986</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002976526728988409</v>
+        <v>0.002185672398359646</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0150471249151959</v>
+        <v>0.01424927889464822</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>6294</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2627</v>
+        <v>2637</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>12486</v>
+        <v>12464</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01686567859105698</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.007039670294613448</v>
+        <v>0.007067071039704133</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03345767054578617</v>
+        <v>0.03339897163084164</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>16</v>
@@ -836,19 +836,19 @@
         <v>17685</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>10314</v>
+        <v>10049</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>27440</v>
+        <v>28512</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03008865746368476</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01754761937524107</v>
+        <v>0.0170967675102692</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04668693255102294</v>
+        <v>0.04851104568736783</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>23</v>
@@ -857,19 +857,19 @@
         <v>23979</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>15654</v>
+        <v>16150</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>35644</v>
+        <v>37379</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02495339613923284</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01629078202288328</v>
+        <v>0.01680660120035197</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03709281090038916</v>
+        <v>0.03889870017370151</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>366057</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>359061</v>
+        <v>359854</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>369811</v>
+        <v>369863</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9808877268885072</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9621421997334384</v>
+        <v>0.964267135586258</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9909472416214595</v>
+        <v>0.9910883305469034</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>553</v>
@@ -907,19 +907,19 @@
         <v>564451</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>553581</v>
+        <v>551871</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>572871</v>
+        <v>573533</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9603613947174702</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9418667881664723</v>
+        <v>0.9389577260538097</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9746858858257951</v>
+        <v>0.9758127755935846</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>944</v>
@@ -928,19 +928,19 @@
         <v>930508</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>917800</v>
+        <v>916009</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>940393</v>
+        <v>940031</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9683329781818422</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9551087834374713</v>
+        <v>0.9532447278711066</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9786200641515347</v>
+        <v>0.9782428702452531</v>
       </c>
     </row>
     <row r="7">
@@ -1048,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>5773</v>
+        <v>5945</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01834190768168999</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.09279912365366218</v>
+        <v>0.09556704143788211</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>5710</v>
+        <v>5779</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.007592310232627089</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03798885450504076</v>
+        <v>0.03845109158922875</v>
       </c>
     </row>
     <row r="9">
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3984</v>
+        <v>4165</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.009190302935488504</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04523431332297569</v>
+        <v>0.04728835225732087</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>4438</v>
+        <v>4154</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.005386138601605915</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02952903513459661</v>
+        <v>0.02764077617407878</v>
       </c>
     </row>
     <row r="10">
@@ -1158,7 +1158,7 @@
         <v>87273</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>84099</v>
+        <v>83918</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>88083</v>
@@ -1167,7 +1167,7 @@
         <v>0.9908096970645115</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9547656866770243</v>
+        <v>0.9527116477426791</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>1</v>
@@ -1179,7 +1179,7 @@
         <v>61071</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>56439</v>
+        <v>56267</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>62212</v>
@@ -1188,7 +1188,7 @@
         <v>0.98165809231831</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9072008763463378</v>
+        <v>0.9044329585621177</v>
       </c>
       <c r="P10" s="6" t="n">
         <v>1</v>
@@ -1200,7 +1200,7 @@
         <v>148344</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>143266</v>
+        <v>143071</v>
       </c>
       <c r="T10" s="5" t="n">
         <v>150295</v>
@@ -1209,7 +1209,7 @@
         <v>0.987021551165767</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.953233735245022</v>
+        <v>0.9519349473187192</v>
       </c>
       <c r="W10" s="6" t="n">
         <v>1</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4695</v>
+        <v>4237</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.001668579154169476</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.009344603514075659</v>
+        <v>0.008432470631009444</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -1541,19 +1541,19 @@
         <v>6754</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3231</v>
+        <v>2927</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>14286</v>
+        <v>14012</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.009978784360956793</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.00477325294181689</v>
+        <v>0.004324428018741523</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02110702204958015</v>
+        <v>0.02070177640294852</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -1562,19 +1562,19 @@
         <v>7592</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3080</v>
+        <v>3193</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>14753</v>
+        <v>15509</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.006438067599248701</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.002611313066946573</v>
+        <v>0.002707344425303069</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01250986159808919</v>
+        <v>0.01315133483053286</v>
       </c>
     </row>
     <row r="17">
@@ -1591,19 +1591,19 @@
         <v>7104</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3434</v>
+        <v>3522</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>14158</v>
+        <v>13962</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01413746032838101</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.006833941962540962</v>
+        <v>0.007009777575920179</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02817784699401839</v>
+        <v>0.02778783391648132</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>16</v>
@@ -1612,19 +1612,19 @@
         <v>17685</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>10088</v>
+        <v>10270</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>29615</v>
+        <v>28165</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02612809468588525</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01490424926158812</v>
+        <v>0.01517378369552474</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04375470705003394</v>
+        <v>0.04161230595283975</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>24</v>
@@ -1633,19 +1633,19 @@
         <v>24788</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>15986</v>
+        <v>17047</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>37366</v>
+        <v>37699</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02101926295469611</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01355523492261325</v>
+        <v>0.01445468806707761</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0316843184493257</v>
+        <v>0.03196710226323406</v>
       </c>
     </row>
     <row r="18">
@@ -1662,19 +1662,19 @@
         <v>494524</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>486818</v>
+        <v>487510</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>498298</v>
+        <v>498172</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9841939605174496</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.968857422983237</v>
+        <v>0.9702340947614309</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9917041118893986</v>
+        <v>0.9914534745546774</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>639</v>
@@ -1683,19 +1683,19 @@
         <v>652403</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>639844</v>
+        <v>639905</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>661048</v>
+        <v>661311</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9638931209531579</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9453375123919308</v>
+        <v>0.9454281418610584</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9766658637456032</v>
+        <v>0.9770531233842533</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1153</v>
@@ -1704,19 +1704,19 @@
         <v>1146927</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1134464</v>
+        <v>1133097</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1157096</v>
+        <v>1156210</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9725426694460552</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9619744879196822</v>
+        <v>0.9608153686882935</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9811649434734441</v>
+        <v>0.9804137395142198</v>
       </c>
     </row>
     <row r="19">
@@ -2047,19 +2047,19 @@
         <v>7172</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3095</v>
+        <v>3106</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14537</v>
+        <v>13403</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01730649334017615</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.007468458295617602</v>
+        <v>0.007495180527031213</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03508080094415095</v>
+        <v>0.03234405145138709</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -2068,19 +2068,19 @@
         <v>17166</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10638</v>
+        <v>9587</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>28203</v>
+        <v>26524</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02705323412852636</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01676479212341133</v>
+        <v>0.01510817523826263</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04444551217950669</v>
+        <v>0.04180064150376312</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>22</v>
@@ -2089,19 +2089,19 @@
         <v>24338</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>15879</v>
+        <v>15914</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>36428</v>
+        <v>35739</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02320266277006761</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01513774544107029</v>
+        <v>0.01517192156743094</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03472838326489271</v>
+        <v>0.03407180213209043</v>
       </c>
     </row>
     <row r="5">
@@ -2118,19 +2118,19 @@
         <v>14252</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6701</v>
+        <v>7651</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>24903</v>
+        <v>25375</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03439303135456721</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01617131522818459</v>
+        <v>0.01846251081221481</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06009323225251171</v>
+        <v>0.06123248303728865</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>17</v>
@@ -2139,19 +2139,19 @@
         <v>18305</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>10716</v>
+        <v>10528</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>29122</v>
+        <v>27770</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02884705685660919</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01688767185204093</v>
+        <v>0.01659217954689148</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04589390831743345</v>
+        <v>0.04376434948336054</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>28</v>
@@ -2160,19 +2160,19 @@
         <v>32557</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>21934</v>
+        <v>22596</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>46773</v>
+        <v>47410</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03103806316531339</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02091016716435735</v>
+        <v>0.02154204578081463</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04459085352321511</v>
+        <v>0.04519792621783421</v>
       </c>
     </row>
     <row r="6">
@@ -2189,19 +2189,19 @@
         <v>392974</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>380933</v>
+        <v>380904</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>401495</v>
+        <v>401273</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9483004753052566</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9192431532842036</v>
+        <v>0.9191753182439144</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9688626178775875</v>
+        <v>0.9683276157510765</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>564</v>
@@ -2210,19 +2210,19 @@
         <v>599074</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>585604</v>
+        <v>586652</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>609401</v>
+        <v>610444</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9440997090148645</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9228721341300327</v>
+        <v>0.9245238813684593</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9603747906632589</v>
+        <v>0.9620189304300912</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>924</v>
@@ -2231,19 +2231,19 @@
         <v>992047</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>974494</v>
+        <v>973937</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>1006773</v>
+        <v>1005680</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.945759274064619</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9290259623959208</v>
+        <v>0.9284945049488346</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.959798678835598</v>
+        <v>0.9587564945064653</v>
       </c>
     </row>
     <row r="7">
@@ -2351,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>8189</v>
+        <v>9123</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02821276877030279</v>
@@ -2360,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.09858049050626787</v>
+        <v>0.1098167340664733</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2</v>
@@ -2372,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>9031</v>
+        <v>9231</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01161777078871786</v>
@@ -2381,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04476662075537421</v>
+        <v>0.04575802055863575</v>
       </c>
     </row>
     <row r="9">
@@ -2398,19 +2398,19 @@
         <v>3134</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>993</v>
+        <v>967</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8504</v>
+        <v>8358</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02640652873006964</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.00836931814195228</v>
+        <v>0.008145704879513898</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.0716641938400662</v>
+        <v>0.07042989705537786</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>0</v>
@@ -2432,19 +2432,19 @@
         <v>3134</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>984</v>
+        <v>995</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>8539</v>
+        <v>9325</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01553255175144113</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.004878685201469835</v>
+        <v>0.00493413080781259</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.04232449938939513</v>
+        <v>0.04622350940623284</v>
       </c>
     </row>
     <row r="10">
@@ -2461,19 +2461,19 @@
         <v>115531</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>110161</v>
+        <v>110307</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>117672</v>
+        <v>117698</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9735934712699303</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9283358061599338</v>
+        <v>0.9295701029446218</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9916306818580478</v>
+        <v>0.9918542951204861</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>75</v>
@@ -2482,7 +2482,7 @@
         <v>80730</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>74885</v>
+        <v>73951</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>83074</v>
@@ -2491,7 +2491,7 @@
         <v>0.9717872312296972</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9014195094937314</v>
+        <v>0.8901832659335266</v>
       </c>
       <c r="P10" s="6" t="n">
         <v>1</v>
@@ -2506,16 +2506,16 @@
         <v>189380</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>199691</v>
+        <v>199700</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.972849677459841</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9387386758810626</v>
+        <v>0.938735904020185</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9898479561727228</v>
+        <v>0.9898928389529693</v>
       </c>
     </row>
     <row r="11">
@@ -2823,19 +2823,19 @@
         <v>7172</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3097</v>
+        <v>3081</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14087</v>
+        <v>14414</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01281504064538234</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.00553405944379542</v>
+        <v>0.005505689737754913</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02517123669495992</v>
+        <v>0.02575518389268858</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>17</v>
@@ -2844,19 +2844,19 @@
         <v>19510</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>11721</v>
+        <v>11885</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>30356</v>
+        <v>30244</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02637000432463017</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01584230868204959</v>
+        <v>0.01606308960301963</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04102874795140093</v>
+        <v>0.04087830316983922</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>24</v>
@@ -2865,19 +2865,19 @@
         <v>26682</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>17095</v>
+        <v>17166</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>38666</v>
+        <v>38646</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02053249135343084</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01315512034748189</v>
+        <v>0.01320936687265498</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02975425867790655</v>
+        <v>0.02973902551908594</v>
       </c>
     </row>
     <row r="17">
@@ -2894,19 +2894,19 @@
         <v>17386</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>10371</v>
+        <v>9767</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>28041</v>
+        <v>28986</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03106641649654497</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01853122504779899</v>
+        <v>0.0174532372469339</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05010485224868552</v>
+        <v>0.05179428548364484</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>17</v>
@@ -2915,19 +2915,19 @@
         <v>18305</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>10992</v>
+        <v>11413</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>28368</v>
+        <v>28435</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02474065492032985</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01485701415376358</v>
+        <v>0.0154255904352187</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0383416954704852</v>
+        <v>0.03843201619608674</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>31</v>
@@ -2936,19 +2936,19 @@
         <v>35691</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>24942</v>
+        <v>24392</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>52648</v>
+        <v>51016</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02746487581296149</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01919357106806423</v>
+        <v>0.01877021137299072</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04051421855313478</v>
+        <v>0.03925799215244882</v>
       </c>
     </row>
     <row r="18">
@@ -2965,19 +2965,19 @@
         <v>535079</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>523336</v>
+        <v>522665</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>543292</v>
+        <v>543920</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9561185428580727</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9351353915628097</v>
+        <v>0.9339358007288864</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9707936743555293</v>
+        <v>0.9719148797590047</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>657</v>
@@ -2986,19 +2986,19 @@
         <v>702050</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>688009</v>
+        <v>688803</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>714729</v>
+        <v>713271</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9488893407550399</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9299112114629718</v>
+        <v>0.9309853358863515</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9660258341965129</v>
+        <v>0.9640550820938572</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1140</v>
@@ -3007,19 +3007,19 @@
         <v>1237129</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1218992</v>
+        <v>1219063</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1252447</v>
+        <v>1252227</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9520026328336076</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9380452252246295</v>
+        <v>0.9381001530652056</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9637902359904984</v>
+        <v>0.9636206898101064</v>
       </c>
     </row>
     <row r="19">
@@ -3350,19 +3350,19 @@
         <v>3664</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>912</v>
+        <v>944</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8298</v>
+        <v>8743</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01035180862523162</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00257761294440215</v>
+        <v>0.002668334027375235</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0234475804423382</v>
+        <v>0.02470577054265269</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -3371,19 +3371,19 @@
         <v>9441</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4634</v>
+        <v>3732</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19413</v>
+        <v>20073</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01701886308641986</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.008352352138724539</v>
+        <v>0.00672762292026128</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0349932997790099</v>
+        <v>0.03618316912766359</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -3392,19 +3392,19 @@
         <v>13105</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6628</v>
+        <v>6812</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>23505</v>
+        <v>22950</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01442219903097389</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007294660227644463</v>
+        <v>0.007496411313863462</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02586794703558899</v>
+        <v>0.02525653463334327</v>
       </c>
     </row>
     <row r="5">
@@ -3421,19 +3421,19 @@
         <v>12200</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6892</v>
+        <v>6748</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>20145</v>
+        <v>19586</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03447320086104777</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01947411538729687</v>
+        <v>0.01906871293871323</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05692294402755195</v>
+        <v>0.05534232020279869</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>10</v>
@@ -3442,19 +3442,19 @@
         <v>11721</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5657</v>
+        <v>6543</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>20723</v>
+        <v>21435</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0211279822935455</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01019773978659268</v>
+        <v>0.011795157928215</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03735520933788587</v>
+        <v>0.03863856392082742</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>24</v>
@@ -3463,19 +3463,19 @@
         <v>23921</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>15715</v>
+        <v>16252</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>35776</v>
+        <v>35811</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0263256373551673</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0172950971323414</v>
+        <v>0.01788614384225273</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03937190856837966</v>
+        <v>0.03941036849660267</v>
       </c>
     </row>
     <row r="6">
@@ -3492,19 +3492,19 @@
         <v>338037</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>330060</v>
+        <v>329500</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>344800</v>
+        <v>344430</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9551749905137206</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9326331313757584</v>
+        <v>0.9310506684192182</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9742848424707476</v>
+        <v>0.9732384129222775</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>454</v>
@@ -3513,19 +3513,19 @@
         <v>533595</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>520927</v>
+        <v>520053</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>541695</v>
+        <v>541625</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9618531546200346</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9390191269366593</v>
+        <v>0.9374436815846845</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9764539159849654</v>
+        <v>0.9763275803607956</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>822</v>
@@ -3534,19 +3534,19 @@
         <v>871632</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>858204</v>
+        <v>857287</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>882557</v>
+        <v>882455</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9592521636138588</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9444736306269955</v>
+        <v>0.9434650006787304</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.971275402089362</v>
+        <v>0.9711625702191832</v>
       </c>
     </row>
     <row r="7">
@@ -3641,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5528</v>
+        <v>6385</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.009370532660599817</v>
@@ -3650,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02871409039112467</v>
+        <v>0.03316519783893054</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>5978</v>
+        <v>6354</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.004740144296049346</v>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01570596606338288</v>
+        <v>0.01669447291601682</v>
       </c>
     </row>
     <row r="9">
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5072</v>
+        <v>5067</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.00538301200056325</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.02696741996425902</v>
+        <v>0.0269424580699152</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1</v>
@@ -3738,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>4780</v>
+        <v>6177</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.002659980711496515</v>
@@ -3747,7 +3747,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.01255896704173087</v>
+        <v>0.01622814898254806</v>
       </c>
     </row>
     <row r="10">
@@ -3764,7 +3764,7 @@
         <v>190728</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>187004</v>
+        <v>186147</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>192532</v>
@@ -3773,7 +3773,7 @@
         <v>0.9906294673394002</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9712859096088753</v>
+        <v>0.9668348021610693</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>1</v>
@@ -3785,7 +3785,7 @@
         <v>187062</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>183002</v>
+        <v>183007</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>188074</v>
@@ -3794,7 +3794,7 @@
         <v>0.9946169879994368</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9730325800357409</v>
+        <v>0.9730575419300846</v>
       </c>
       <c r="P10" s="6" t="n">
         <v>1</v>
@@ -3806,19 +3806,19 @@
         <v>377789</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>373834</v>
+        <v>372466</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>379708</v>
+        <v>379719</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9925998749924542</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9822061055089747</v>
+        <v>0.9786133359104733</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9976410637474934</v>
+        <v>0.9976694095635513</v>
       </c>
     </row>
     <row r="11">
@@ -3973,7 +3973,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7265</v>
+        <v>6865</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04085587878785221</v>
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2157572230641128</v>
+        <v>0.2038683198462604</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>7075</v>
+        <v>8506</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01817337009297725</v>
@@ -4003,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09346101156033794</v>
+        <v>0.1123636791526176</v>
       </c>
     </row>
     <row r="14">
@@ -4033,7 +4033,7 @@
         <v>32298</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>26409</v>
+        <v>26809</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>33674</v>
@@ -4042,7 +4042,7 @@
         <v>0.9591441212121478</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7842427769358874</v>
+        <v>0.7961316801537394</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -4054,7 +4054,7 @@
         <v>74327</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>68628</v>
+        <v>67197</v>
       </c>
       <c r="T14" s="5" t="n">
         <v>75703</v>
@@ -4063,7 +4063,7 @@
         <v>0.9818266299070227</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9065389884396623</v>
+        <v>0.8876363208473859</v>
       </c>
       <c r="W14" s="6" t="n">
         <v>1</v>
@@ -4158,19 +4158,19 @@
         <v>5468</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1874</v>
+        <v>1849</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11128</v>
+        <v>11736</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.009291410039086748</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003184833399656363</v>
+        <v>0.003141658050631762</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01890966565589762</v>
+        <v>0.01994396647618185</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -4179,19 +4179,19 @@
         <v>9441</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3788</v>
+        <v>4003</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>19627</v>
+        <v>19647</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01215875083512132</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004877644463636569</v>
+        <v>0.005154671449264643</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02527621218292058</v>
+        <v>0.0253018296306434</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>13</v>
@@ -4200,19 +4200,19 @@
         <v>14909</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>7869</v>
+        <v>8406</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>25424</v>
+        <v>25811</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01092258737435832</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005764922880644024</v>
+        <v>0.006158144035482162</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01862634498723692</v>
+        <v>0.01890925647407297</v>
       </c>
     </row>
     <row r="17">
@@ -4229,19 +4229,19 @@
         <v>12200</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6886</v>
+        <v>6878</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>20320</v>
+        <v>19772</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02073218141432232</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01170162735437048</v>
+        <v>0.01168819570407892</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03453112430774778</v>
+        <v>0.03359970224265199</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>12</v>
@@ -4250,19 +4250,19 @@
         <v>14109</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>7228</v>
+        <v>7455</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>22955</v>
+        <v>24153</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01816998025170754</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.009308754044869545</v>
+        <v>0.009600720004822505</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02956164736857389</v>
+        <v>0.03110505544055979</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>26</v>
@@ -4271,19 +4271,19 @@
         <v>26309</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>17614</v>
+        <v>17033</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>38359</v>
+        <v>38559</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01927459239293927</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01290417241579475</v>
+        <v>0.01247890981639438</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02810242386869602</v>
+        <v>0.02824869806238489</v>
       </c>
     </row>
     <row r="18">
@@ -4300,19 +4300,19 @@
         <v>570795</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>561813</v>
+        <v>562108</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>577014</v>
+        <v>577144</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.969976408546591</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9547126345436172</v>
+        <v>0.9552134355609392</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9805435559757218</v>
+        <v>0.9807658742380387</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>635</v>
@@ -4321,19 +4321,19 @@
         <v>752955</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>741614</v>
+        <v>739538</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>762496</v>
+        <v>762072</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9696712689131711</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9550671858370345</v>
+        <v>0.9523928419883614</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9819584767568195</v>
+        <v>0.9814127072130144</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1239</v>
@@ -4342,19 +4342,19 @@
         <v>1323750</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1308304</v>
+        <v>1308080</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1334660</v>
+        <v>1336034</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9698028202327024</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.958486847685585</v>
+        <v>0.9583225596236643</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.977795620708753</v>
+        <v>0.9788025990445264</v>
       </c>
     </row>
     <row r="19">
@@ -4685,19 +4685,19 @@
         <v>2692</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>998</v>
+        <v>1108</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5908</v>
+        <v>6145</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.009299274251284928</v>
+        <v>0.00929927425128493</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003447202702445796</v>
+        <v>0.003827357824332355</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02041230417067504</v>
+        <v>0.02123093918223315</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>20</v>
@@ -4706,19 +4706,19 @@
         <v>12640</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7820</v>
+        <v>7503</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20601</v>
+        <v>21219</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02348688286171832</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01453015774585147</v>
+        <v>0.0139409778047331</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03827899066306445</v>
+        <v>0.03942696217544388</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>26</v>
@@ -4727,19 +4727,19 @@
         <v>15332</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10007</v>
+        <v>9973</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>23452</v>
+        <v>24288</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01852506770358174</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01209121892031576</v>
+        <v>0.01205081551716089</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02833668040870704</v>
+        <v>0.02934715656413633</v>
       </c>
     </row>
     <row r="5">
@@ -4756,19 +4756,19 @@
         <v>3613</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1380</v>
+        <v>1361</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7949</v>
+        <v>7813</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.01248107365965243</v>
+        <v>0.01248107365965244</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.004767030752665322</v>
+        <v>0.00470362014428055</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02746346668160278</v>
+        <v>0.02699407433309613</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>43</v>
@@ -4777,19 +4777,19 @@
         <v>25522</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>19233</v>
+        <v>18437</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>34879</v>
+        <v>33524</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.047422717527911</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03573641458512312</v>
+        <v>0.03425807787983325</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06481023732619415</v>
+        <v>0.0622920514605237</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>49</v>
@@ -4798,19 +4798,19 @@
         <v>29134</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>22385</v>
+        <v>21565</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>38099</v>
+        <v>38186</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03520261878144301</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02704774177842735</v>
+        <v>0.02605630841766237</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.046033917502122</v>
+        <v>0.04613908349189817</v>
       </c>
     </row>
     <row r="6">
@@ -4827,19 +4827,19 @@
         <v>283138</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>278412</v>
+        <v>278390</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>286015</v>
+        <v>286104</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.9782196520890626</v>
+        <v>0.9782196520890628</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9618917530473606</v>
+        <v>0.9618160745300052</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.98815854494614</v>
+        <v>0.9884676311187102</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>955</v>
@@ -4848,19 +4848,19 @@
         <v>500015</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>488400</v>
+        <v>488747</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>508379</v>
+        <v>508811</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.9290903996103707</v>
+        <v>0.9290903996103708</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9075080838036417</v>
+        <v>0.908152261326433</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9446316614773635</v>
+        <v>0.9454339113500067</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1370</v>
@@ -4869,19 +4869,19 @@
         <v>783154</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>772087</v>
+        <v>771586</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>792285</v>
+        <v>792514</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.9462723135149754</v>
+        <v>0.9462723135149751</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9329002309544923</v>
+        <v>0.9322953359085651</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9573049807097279</v>
+        <v>0.9575824272673843</v>
       </c>
     </row>
     <row r="7">
@@ -4989,7 +4989,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2630</v>
+        <v>2072</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.001646328430330591</v>
@@ -4998,7 +4998,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.009473272296410202</v>
+        <v>0.007461681377423673</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1</v>
@@ -5010,7 +5010,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2000</v>
+        <v>2577</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0007861031914970605</v>
@@ -5019,7 +5019,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.003440264600131034</v>
+        <v>0.004431772585338629</v>
       </c>
     </row>
     <row r="9">
@@ -5036,19 +5036,19 @@
         <v>9073</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5044</v>
+        <v>5264</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>15412</v>
+        <v>15597</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.02986216623220815</v>
+        <v>0.02986216623220816</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01660320789663385</v>
+        <v>0.01732685793884388</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.05072661588367033</v>
+        <v>0.05133563681390772</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>19</v>
@@ -5057,19 +5057,19 @@
         <v>8625</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>5337</v>
+        <v>5199</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>13311</v>
+        <v>13477</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.03106578426624429</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01922278866496483</v>
+        <v>0.01872554938059421</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.04794110302283269</v>
+        <v>0.04854101079906169</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>32</v>
@@ -5078,19 +5078,19 @@
         <v>17698</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>12172</v>
+        <v>11991</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>25210</v>
+        <v>24819</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03043688022029693</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02093335497749788</v>
+        <v>0.02062172101312403</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.04335603687432047</v>
+        <v>0.04268301307304755</v>
       </c>
     </row>
     <row r="10">
@@ -5107,19 +5107,19 @@
         <v>294752</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>288413</v>
+        <v>288228</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>298781</v>
+        <v>298561</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9701378337677918</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9492733841163293</v>
+        <v>0.9486643631860924</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9833967921033658</v>
+        <v>0.9826731420611562</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>509</v>
@@ -5128,19 +5128,19 @@
         <v>268564</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>263650</v>
+        <v>263640</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>271909</v>
+        <v>272293</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9672878873034252</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.94958959840999</v>
+        <v>0.9495532967556836</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9793368513284767</v>
+        <v>0.980718780852214</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>922</v>
@@ -5149,19 +5149,19 @@
         <v>563316</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>555631</v>
+        <v>555982</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>569013</v>
+        <v>569039</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.968777016588206</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9555607105287852</v>
+        <v>0.9561641700729451</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9785750595529065</v>
+        <v>0.9786198696505688</v>
       </c>
     </row>
     <row r="11">
@@ -5316,7 +5316,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>3323</v>
+        <v>3450</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.007872094277976039</v>
@@ -5325,7 +5325,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04010555052093009</v>
+        <v>0.04163587535917339</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1</v>
@@ -5337,7 +5337,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>3270</v>
+        <v>3202</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.003233154310200459</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01621160845918954</v>
+        <v>0.01587090828317621</v>
       </c>
     </row>
     <row r="14">
@@ -5376,7 +5376,7 @@
         <v>82203</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>79532</v>
+        <v>79405</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>82855</v>
@@ -5385,7 +5385,7 @@
         <v>0.9921279057220239</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9598944494790699</v>
+        <v>0.9583641246408277</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -5397,7 +5397,7 @@
         <v>201084</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>198466</v>
+        <v>198534</v>
       </c>
       <c r="T14" s="5" t="n">
         <v>201736</v>
@@ -5406,7 +5406,7 @@
         <v>0.9967668456897997</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9837883915408104</v>
+        <v>0.9841290917168237</v>
       </c>
       <c r="W14" s="6" t="n">
         <v>1</v>
@@ -5501,19 +5501,19 @@
         <v>2692</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>923</v>
+        <v>1162</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5635</v>
+        <v>6233</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.00377955485059739</v>
+        <v>0.003779554850597389</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001296674573711023</v>
+        <v>0.001632259879246267</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.007912779887472816</v>
+        <v>0.008752066817558439</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>21</v>
@@ -5522,19 +5522,19 @@
         <v>13097</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7764</v>
+        <v>8186</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>20696</v>
+        <v>21031</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01457384938585184</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.008639220855604982</v>
+        <v>0.009109182811334956</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02302889662442118</v>
+        <v>0.0234017037054325</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>27</v>
@@ -5543,19 +5543,19 @@
         <v>15789</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>10136</v>
+        <v>10527</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>23203</v>
+        <v>24761</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.009801678399550789</v>
+        <v>0.009801678399550791</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006292528011814804</v>
+        <v>0.006535422254882055</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01440455311616351</v>
+        <v>0.0153716159988333</v>
       </c>
     </row>
     <row r="17">
@@ -5572,19 +5572,19 @@
         <v>12685</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7514</v>
+        <v>7539</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>19557</v>
+        <v>19537</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01781290031041845</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0105513127743699</v>
+        <v>0.01058655063298685</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02746197261365908</v>
+        <v>0.02743369159575196</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>63</v>
@@ -5593,19 +5593,19 @@
         <v>34799</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>26601</v>
+        <v>27074</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>43866</v>
+        <v>44691</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03872281935910259</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02960068595521476</v>
+        <v>0.03012605428001456</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04881171288803272</v>
+        <v>0.04972940921506459</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>82</v>
@@ -5614,19 +5614,19 @@
         <v>47485</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>37499</v>
+        <v>36434</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>59483</v>
+        <v>58362</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02947851824390406</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0232794775822905</v>
+        <v>0.02261814740140559</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03692705225877695</v>
+        <v>0.03623138730696097</v>
       </c>
     </row>
     <row r="18">
@@ -5643,19 +5643,19 @@
         <v>696772</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>689516</v>
+        <v>689822</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>702244</v>
+        <v>702452</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9784075448389843</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9682182728358986</v>
+        <v>0.9686477674792093</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9860910347520668</v>
+        <v>0.9863829181162208</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1615</v>
@@ -5664,19 +5664,19 @@
         <v>850781</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>839887</v>
+        <v>839115</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>860812</v>
+        <v>860516</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9467033312550456</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9345807607600226</v>
+        <v>0.9337217136945274</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9578650629614344</v>
+        <v>0.9575349103477752</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>2611</v>
@@ -5685,19 +5685,19 @@
         <v>1547553</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1534084</v>
+        <v>1534753</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1559072</v>
+        <v>1559564</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9607198033565449</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9523582122941036</v>
+        <v>0.952773381500896</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.967870743627426</v>
+        <v>0.9681761112175937</v>
       </c>
     </row>
     <row r="19">
